--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -839,7 +839,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>

--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Liste des sources</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Comité d'aide au développement de l'OCDE (CAD)</t>
   </si>
   <si>
-    <t>Mis à jour le 28/10/2020</t>
+    <t>Mis à jour le 21/01/2021</t>
   </si>
   <si>
     <t>https://stats-2.oecd.org/Index.aspx?lang=fr&amp;SubSessionId=6a671414-4b8a-437c-8c72-4ae6ef4ea94c&amp;themetreeid=3</t>
@@ -57,7 +57,7 @@
     <t>Octobre 2020</t>
   </si>
   <si>
-    <t>https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx</t>
+    <t>https://www.imf.org/external/pubs/ft/weo/2019/01/weodata/index.aspx</t>
   </si>
   <si>
     <t>Base de données Égalité femmes-hommes, institutions et développement</t>
@@ -66,7 +66,7 @@
     <t>Centre de développement de l'OCDE</t>
   </si>
   <si>
-    <t>Décembre 2018</t>
+    <t>Décembre 2019</t>
   </si>
   <si>
     <t>https://www.genderindex.org/data/</t>
@@ -147,7 +147,7 @@
     <t>PNUD</t>
   </si>
   <si>
-    <t>2018</t>
+    <t>2019</t>
   </si>
   <si>
     <t>http://hdr.undp.org/en/content/human-development-index-hdi</t>
@@ -180,16 +180,13 @@
     <t>Index du commerce électronique B2C de la CNUCED</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>https://unctad.org/system/files/official-document/tn_unctad_ict4d14_en.pdf</t>
   </si>
   <si>
     <t>indicateurs de développement de la banque mondiale</t>
   </si>
   <si>
-    <t>Mis à jour le 16/10/2020</t>
+    <t>Mis à jour le 16/12/2020</t>
   </si>
   <si>
     <t>https://data.worldbank.org/products/wdi</t>
@@ -264,7 +261,7 @@
     <t>https://population.un.org/wpp/Download/Standard/Population/</t>
   </si>
   <si>
-    <t>World Urbanization Prospects: the 2018 revision, ONU</t>
+    <t>World Urbanization Prospects: the 2019 revision, ONU</t>
   </si>
   <si>
     <t>https://population.un.org/wup/</t>
@@ -1065,145 +1062,145 @@
         <v>26</v>
       </c>
       <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
       <c r="B18" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="4"/>
       <c r="B19" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>62</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="4"/>
       <c r="B21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="E21" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="4"/>
       <c r="B22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="4"/>
       <c r="B23" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>38</v>
       </c>
       <c r="D23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="D24" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="13" t="s">
         <v>79</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="4"/>
       <c r="B25" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1491,7 +1488,7 @@
     <hyperlink ref="E11" r:id="rId11"/>
     <hyperlink ref="E14" r:id="rId12" location="data"/>
     <hyperlink ref="E18" r:id="rId13"/>
-    <hyperlink ref="E5" r:id="rId14"/>
+    <hyperlink ref="E5" r:id="rId14" display="https://www.imf.org/external/pubs/ft/weo/2018/01/weodata/index.aspx"/>
     <hyperlink ref="E21" r:id="rId15"/>
     <hyperlink ref="E4" r:id="rId16"/>
     <hyperlink ref="E6" r:id="rId17"/>

--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>

--- a/DDAf_2021_tableau_annexe_sources.xlsx
+++ b/DDAf_2021_tableau_annexe_sources.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11990"/>
   </bookViews>
   <sheets>
     <sheet name="Sources" sheetId="1" r:id="rId1"/>
